--- a/Project 2/IntegerTimingSpreadsheet.xlsx
+++ b/Project 2/IntegerTimingSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan C\Documents\GitHub\IT310\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDBC7E3-A9A3-4B71-92B4-AC3183B58008}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E8DA3-5E48-45E1-88DD-D9F744702E27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{688989AF-19A3-4C8D-B96D-41811F89DBF4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Selection Sort</t>
   </si>
@@ -238,10 +238,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bubble Sort</c:v>
@@ -324,10 +324,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bubble Sort</c:v>
@@ -410,10 +410,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bubble Sort</c:v>
@@ -496,10 +496,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Selection Sort</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Insertion Sort</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bubble Sort</c:v>
@@ -1388,12 +1388,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
@@ -1723,7 +1723,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,10 +1736,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
